--- a/references/utx000ext_admin/utx000ext_timelines.xlsx
+++ b/references/utx000ext_admin/utx000ext_timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/utx000ext_admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34B15FB-ABA7-704C-9E7A-B49E3A0052E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A371D5-2C25-2C45-A971-D028C4E0BB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="1900" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Event 1</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Short Relocation Survey</t>
+  </si>
+  <si>
+    <t></t>
   </si>
 </sst>
 </file>
@@ -628,39 +631,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,10 +655,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1011,8 @@
   <dimension ref="A1:JD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="FX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GA11" sqref="GA11"/>
+      <pane xSplit="2" topLeftCell="CU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DL7" sqref="DL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="33"/>
@@ -1064,7 +1067,7 @@
       </c>
     </row>
     <row r="3" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B3" s="57"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -1103,7 +1106,7 @@
       <c r="FJ3" s="1"/>
     </row>
     <row r="4" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B4" s="57"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1150,7 +1153,7 @@
       </c>
     </row>
     <row r="5" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B5" s="57"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1193,21 +1196,21 @@
       <c r="FJ5" s="1"/>
     </row>
     <row r="6" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B6" s="57"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -1254,7 +1257,7 @@
       </c>
     </row>
     <row r="7" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B7" s="57"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1296,10 +1299,10 @@
       <c r="FJ7" s="1"/>
     </row>
     <row r="8" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="16">
         <v>43843</v>
       </c>
@@ -1957,17 +1960,17 @@
       <c r="AH9" s="9"/>
       <c r="BM9" s="1"/>
       <c r="BU9" s="25"/>
-      <c r="DA9" s="65" t="s">
+      <c r="DA9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="DB9" s="65"/>
-      <c r="DC9" s="65"/>
-      <c r="DD9" s="65"/>
-      <c r="DE9" s="65"/>
-      <c r="DF9" s="65"/>
-      <c r="DG9" s="65"/>
-      <c r="DH9" s="65"/>
-      <c r="DI9" s="65"/>
+      <c r="DB9" s="54"/>
+      <c r="DC9" s="54"/>
+      <c r="DD9" s="54"/>
+      <c r="DE9" s="54"/>
+      <c r="DF9" s="54"/>
+      <c r="DG9" s="54"/>
+      <c r="DH9" s="54"/>
+      <c r="DI9" s="54"/>
       <c r="DL9" s="1"/>
       <c r="DO9" s="1"/>
       <c r="EA9" s="1"/>
@@ -2066,24 +2069,27 @@
       <c r="BU11" s="25"/>
       <c r="DL11" s="1"/>
       <c r="DO11" s="1"/>
-      <c r="DZ11" s="61" t="s">
+      <c r="DZ11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="EA11" s="61"/>
-      <c r="EB11" s="61"/>
-      <c r="EC11" s="61"/>
-      <c r="ED11" s="61"/>
-      <c r="EE11" s="61"/>
-      <c r="EF11" s="61"/>
-      <c r="EG11" s="61"/>
-      <c r="EH11" s="61"/>
-      <c r="EI11" s="61"/>
-      <c r="EJ11" s="61"/>
-      <c r="EK11" s="61"/>
-      <c r="EL11" s="61"/>
-      <c r="EM11" s="61"/>
+      <c r="EA11" s="50"/>
+      <c r="EB11" s="50"/>
+      <c r="EC11" s="50"/>
+      <c r="ED11" s="50"/>
+      <c r="EE11" s="50"/>
+      <c r="EF11" s="50"/>
+      <c r="EG11" s="50"/>
+      <c r="EH11" s="50"/>
+      <c r="EI11" s="50"/>
+      <c r="EJ11" s="50"/>
+      <c r="EK11" s="50"/>
+      <c r="EL11" s="50"/>
+      <c r="EM11" s="50"/>
       <c r="FA11" s="1"/>
       <c r="FH11" s="1"/>
+      <c r="GA11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
@@ -2166,22 +2172,22 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="55" t="s">
+      <c r="BN13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO13" s="55"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="55"/>
-      <c r="BR13" s="55"/>
-      <c r="BS13" s="55"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="58"/>
+      <c r="BR13" s="58"/>
+      <c r="BS13" s="58"/>
       <c r="BU13" s="25"/>
-      <c r="BV13" s="59" t="s">
+      <c r="BV13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="BW13" s="55"/>
-      <c r="BX13" s="55"/>
-      <c r="BY13" s="55"/>
-      <c r="BZ13" s="55"/>
+      <c r="BW13" s="58"/>
+      <c r="BX13" s="58"/>
+      <c r="BY13" s="58"/>
+      <c r="BZ13" s="58"/>
       <c r="DL13" s="1"/>
       <c r="DO13" s="1"/>
       <c r="EA13" s="1"/>
@@ -2226,15 +2232,15 @@
       <c r="AG14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD14" s="56" t="s">
+      <c r="BD14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="56"/>
-      <c r="BI14" s="56"/>
-      <c r="BJ14" s="56"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
       <c r="BM14" s="44" t="s">
         <v>59</v>
       </c>
@@ -2242,10 +2248,10 @@
       <c r="BV14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD14" s="53" t="s">
+      <c r="DD14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE14" s="53"/>
+      <c r="DE14" s="69"/>
       <c r="DF14" s="40"/>
       <c r="DG14" s="46"/>
       <c r="DH14" s="46"/>
@@ -2269,10 +2275,10 @@
       <c r="DV14" s="46"/>
       <c r="DW14" s="46"/>
       <c r="DX14" s="46"/>
-      <c r="DY14" s="51" t="s">
+      <c r="DY14" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ14" s="52"/>
+      <c r="DZ14" s="68"/>
       <c r="EA14" s="37" t="s">
         <v>60</v>
       </c>
@@ -2291,10 +2297,10 @@
       <c r="EL14" s="41"/>
       <c r="EM14" s="41"/>
       <c r="EN14" s="41"/>
-      <c r="EO14" s="54" t="s">
+      <c r="EO14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP14" s="54"/>
+      <c r="EP14" s="70"/>
       <c r="EQ14" s="48"/>
       <c r="ER14" s="48"/>
       <c r="ES14" s="48"/>
@@ -2322,23 +2328,23 @@
     </row>
     <row r="15" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2360,30 +2366,30 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="31"/>
       <c r="BF16" s="31"/>
-      <c r="BG16" s="66" t="s">
+      <c r="BG16" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="BH16" s="67"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="68"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="57"/>
     </row>
     <row r="17" spans="1:264" x14ac:dyDescent="0.2">
-      <c r="B17" s="58"/>
-      <c r="C17" s="69" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2405,13 +2411,13 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="31"/>
       <c r="BF17" s="31"/>
-      <c r="BG17" s="66" t="s">
+      <c r="BG17" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="68"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="57"/>
       <c r="DA17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2429,7 @@
       </c>
     </row>
     <row r="18" spans="1:264" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2467,10 +2473,10 @@
       <c r="DT18" s="1"/>
     </row>
     <row r="19" spans="1:264" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="16">
         <v>43843</v>
       </c>
@@ -3247,21 +3253,21 @@
       <c r="BJ22" s="31"/>
       <c r="BK22" s="31"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="55" t="s">
+      <c r="BN22" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="55"/>
-      <c r="BR22" s="55"/>
-      <c r="BS22" s="55"/>
-      <c r="BV22" s="55" t="s">
+      <c r="BO22" s="58"/>
+      <c r="BP22" s="58"/>
+      <c r="BQ22" s="58"/>
+      <c r="BR22" s="58"/>
+      <c r="BS22" s="58"/>
+      <c r="BV22" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="BW22" s="55"/>
-      <c r="BX22" s="55"/>
-      <c r="BY22" s="55"/>
-      <c r="BZ22" s="55"/>
+      <c r="BW22" s="58"/>
+      <c r="BX22" s="58"/>
+      <c r="BY22" s="58"/>
+      <c r="BZ22" s="58"/>
       <c r="DL22" s="1"/>
       <c r="DO22" s="1"/>
       <c r="EA22" s="1"/>
@@ -3305,15 +3311,15 @@
       <c r="AG23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD23" s="56" t="s">
+      <c r="BD23" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE23" s="56"/>
-      <c r="BF23" s="56"/>
-      <c r="BG23" s="56"/>
-      <c r="BH23" s="56"/>
-      <c r="BI23" s="56"/>
-      <c r="BJ23" s="56"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="59"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="59"/>
+      <c r="BJ23" s="59"/>
       <c r="BM23" s="44" t="s">
         <v>59</v>
       </c>
@@ -3321,10 +3327,10 @@
       <c r="BV23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD23" s="53" t="s">
+      <c r="DD23" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE23" s="53"/>
+      <c r="DE23" s="69"/>
       <c r="DF23" s="40"/>
       <c r="DG23" s="46"/>
       <c r="DH23" s="46"/>
@@ -3348,10 +3354,10 @@
       <c r="DV23" s="46"/>
       <c r="DW23" s="46"/>
       <c r="DX23" s="46"/>
-      <c r="DY23" s="51" t="s">
+      <c r="DY23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ23" s="52"/>
+      <c r="DZ23" s="68"/>
       <c r="EA23" s="37" t="s">
         <v>60</v>
       </c>
@@ -3370,10 +3376,10 @@
       <c r="EL23" s="41"/>
       <c r="EM23" s="41"/>
       <c r="EN23" s="41"/>
-      <c r="EO23" s="54" t="s">
+      <c r="EO23" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP23" s="54"/>
+      <c r="EP23" s="70"/>
       <c r="EQ23" s="48"/>
       <c r="ER23" s="48"/>
       <c r="ES23" s="48"/>
@@ -3433,20 +3439,20 @@
       <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -3465,13 +3471,13 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="31"/>
       <c r="BF27" s="31"/>
-      <c r="BG27" s="66" t="s">
+      <c r="BG27" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="BH27" s="67"/>
-      <c r="BI27" s="67"/>
-      <c r="BJ27" s="67"/>
-      <c r="BK27" s="68"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="57"/>
       <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3495,20 +3501,20 @@
       <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -3527,13 +3533,13 @@
       <c r="BD28" s="31"/>
       <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
-      <c r="BG28" s="66" t="s">
+      <c r="BG28" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="BH28" s="67"/>
-      <c r="BI28" s="67"/>
-      <c r="BJ28" s="67"/>
-      <c r="BK28" s="68"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="57"/>
       <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3556,10 +3562,10 @@
       <c r="FA29" s="1"/>
     </row>
     <row r="30" spans="1:264" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="16">
         <v>43843</v>
       </c>
@@ -4492,21 +4498,21 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="55" t="s">
+      <c r="BN33" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO33" s="55"/>
-      <c r="BP33" s="55"/>
-      <c r="BQ33" s="55"/>
-      <c r="BR33" s="55"/>
-      <c r="BS33" s="55"/>
-      <c r="BV33" s="55" t="s">
+      <c r="BO33" s="58"/>
+      <c r="BP33" s="58"/>
+      <c r="BQ33" s="58"/>
+      <c r="BR33" s="58"/>
+      <c r="BS33" s="58"/>
+      <c r="BV33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="BW33" s="55"/>
-      <c r="BX33" s="55"/>
-      <c r="BY33" s="55"/>
-      <c r="BZ33" s="55"/>
+      <c r="BW33" s="58"/>
+      <c r="BX33" s="58"/>
+      <c r="BY33" s="58"/>
+      <c r="BZ33" s="58"/>
       <c r="DL33" s="1"/>
       <c r="DO33" s="1"/>
       <c r="EA33" s="1"/>
@@ -4550,15 +4556,15 @@
       <c r="AG34" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD34" s="56" t="s">
+      <c r="BD34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="59"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="59"/>
+      <c r="BJ34" s="59"/>
       <c r="BM34" s="44" t="s">
         <v>59</v>
       </c>
@@ -4566,10 +4572,10 @@
       <c r="BV34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD34" s="53" t="s">
+      <c r="DD34" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE34" s="53"/>
+      <c r="DE34" s="69"/>
       <c r="DF34" s="40"/>
       <c r="DG34" s="46"/>
       <c r="DH34" s="46"/>
@@ -4593,10 +4599,10 @@
       <c r="DV34" s="46"/>
       <c r="DW34" s="46"/>
       <c r="DX34" s="46"/>
-      <c r="DY34" s="51" t="s">
+      <c r="DY34" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ34" s="52"/>
+      <c r="DZ34" s="68"/>
       <c r="EA34" s="37" t="s">
         <v>60</v>
       </c>
@@ -4615,10 +4621,10 @@
       <c r="EL34" s="41"/>
       <c r="EM34" s="41"/>
       <c r="EN34" s="41"/>
-      <c r="EO34" s="54" t="s">
+      <c r="EO34" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP34" s="54"/>
+      <c r="EP34" s="70"/>
       <c r="EQ34" s="48"/>
       <c r="ER34" s="48"/>
       <c r="ES34" s="48"/>
@@ -4646,10 +4652,10 @@
     </row>
     <row r="35" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="66"/>
     </row>
     <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -4729,6 +4735,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="DY14:DZ14"/>
+    <mergeCell ref="DD14:DE14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="DD23:DE23"/>
+    <mergeCell ref="DY23:DZ23"/>
+    <mergeCell ref="EO23:EP23"/>
+    <mergeCell ref="DD34:DE34"/>
+    <mergeCell ref="DY34:DZ34"/>
+    <mergeCell ref="EO34:EP34"/>
+    <mergeCell ref="BV33:BZ33"/>
+    <mergeCell ref="BN33:BS33"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="C6:N6"/>
     <mergeCell ref="DZ11:EM11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A19:B19"/>
@@ -4745,25 +4770,6 @@
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C28:N28"/>
     <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BN22:BS22"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="DY14:DZ14"/>
-    <mergeCell ref="DD14:DE14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="DD23:DE23"/>
-    <mergeCell ref="DY23:DZ23"/>
-    <mergeCell ref="EO23:EP23"/>
-    <mergeCell ref="DD34:DE34"/>
-    <mergeCell ref="DY34:DZ34"/>
-    <mergeCell ref="EO34:EP34"/>
-    <mergeCell ref="BV33:BZ33"/>
-    <mergeCell ref="BN33:BS33"/>
-    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
